--- a/medicine/Enfance/Anita_Nair/Anita_Nair.xlsx
+++ b/medicine/Enfance/Anita_Nair/Anita_Nair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anita Nair, née le 26 janvier 1966 à Mundakottakurissi, près de Shoranur, est une écrivaine, poétesse, romancière et nouvelliste indienne originaire du Kerala.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anita Nair commence sa carrière comme journaliste puis commence à écrire en 1996. Tous ses livres sont rédigés en anglais.
 Elle est mariée et a un fils. Elle réside à Bangalore.
-Elle a fondé le Anita's Attic, un programme de mentorat en écriture créative qui existe depuis 2014[1].
+Elle a fondé le Anita's Attic, un programme de mentorat en écriture créative qui existe depuis 2014.
 </t>
         </is>
       </c>
@@ -546,12 +560,58 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Inspecteur Gowda
-Cut Like Wound, 2012 Publié en français sous le titre L'Inconnue de Bangalore, traduit par Dominique Vitalyos, Paris, Albin Michel, 2013  (ISBN 978-2-226-24684-4) ; réédition, Paris, LGF, coll. « Le Livre de poche » no 33747, 2015  (ISBN 978-2-253-09304-6)
-Chain of Custody, 2016
-Autres romans
-Ladies Coupé, 2001 Publié en français sous le titre Compartiment pour dames, traduit par Marielle Morin, Arles, éditions Philippe Picquier, 2002  (ISBN 2-87730-609-7) ; réédition, Arles, éditions Philippe Picquier, coll. « Picquier poche » no 235, 2004  (ISBN 2-87730-747-6) ; réédition, Paris, Albin Michel, 2016  (ISBN 978-2-226-32611-9) ; réédition, Paris, LGF, coll. « Le Livre de poche » no 35257, 2019  (ISBN 978-2-253-10031-7)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Inspecteur Gowda</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cut Like Wound, 2012 Publié en français sous le titre L'Inconnue de Bangalore, traduit par Dominique Vitalyos, Paris, Albin Michel, 2013  (ISBN 978-2-226-24684-4) ; réédition, Paris, LGF, coll. « Le Livre de poche » no 33747, 2015  (ISBN 978-2-253-09304-6)
+Chain of Custody, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anita_Nair</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anita_Nair</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ladies Coupé, 2001 Publié en français sous le titre Compartiment pour dames, traduit par Marielle Morin, Arles, éditions Philippe Picquier, 2002  (ISBN 2-87730-609-7) ; réédition, Arles, éditions Philippe Picquier, coll. « Picquier poche » no 235, 2004  (ISBN 2-87730-747-6) ; réédition, Paris, Albin Michel, 2016  (ISBN 978-2-226-32611-9) ; réédition, Paris, LGF, coll. « Le Livre de poche » no 35257, 2019  (ISBN 978-2-253-10031-7)
 The Better Man, 2000 Publié en français sous le titre Un homme meilleur, traduit par Marielle Morin, Arles, éditions Philippe Picquier, 2003  (ISBN 2-87730-675-5) ; réédition, Arles, éditions Philippe Picquier, coll. « Picquier poche » no 275, 2006  (ISBN 978-2-87730-870-0)
 Mistress, 2005 Publié en français sous le titre Les Neuf Visages du cœur, traduit par Marielle Morin, Arles, éditions Philippe Picquier, 2006  (ISBN 978-2-87730-868-7) ; réédition, Arles, éditions Philippe Picquier, coll. « Picquier poche », 2010  (ISBN 978-2-8097-0205-7)
 Lessons in Forgetting, 2010 Publié en français sous le titre Quand viennent les cyclones, traduit par Dominique Vitalyos, Paris, Albin Michel, 2010  (ISBN 978-2-226-20848-4) ; réédition, Paris, LGF, coll. « Le Livre de poche » no 32965, 2013  (ISBN 978-2-253-17550-6)
@@ -559,52 +619,190 @@
 Idris. Keeper of the Light, 2014 Publié en français sous le titre Dans les jardins du Malabar, traduit par Dominique Vitalyos, Paris, Albin Michel, 2016  (ISBN 978-2-226-32095-7) ; réédition, Paris, LGF, coll. « Le Livre de poche » no 35258, 2019  (ISBN 978-2-253-10032-4)
 Alphabet Soup for Lovers, 2015 Publié en français sous le titre L’Abécédaire des sentiments, traduit par Dominique Vitalyos, Paris, Albin Michel, 2018  (ISBN 978-2-226-39335-7)
 Eating Wasps, 2018
-Publié en français sous le titre La Mangeuse de guêpes, traduit par Patricia Barbe-Girault, Paris, Albin Michel, 2020 ( (ISBN 978-2-226-44783-8))
-Recueils de nouvelles
-Satyr of the Subway &amp; Eleven Other Stories, 1997 Publié en français sous le titre Le Chat karmique, traduit par Marielle Morin, Arles, éditions Philippe Picquier, 2005  (ISBN 2-87730-772-7) ; réédition, Arles, éditions Philippe Picquier, coll. « Picquier poche », 2008  (ISBN 978-2-8097-0007-7)
-Ouvrages de littérature d'enfance et de jeunesse
-Puffin Book of World Myths and Legends, 2004
+Publié en français sous le titre La Mangeuse de guêpes, traduit par Patricia Barbe-Girault, Paris, Albin Michel, 2020 ( (ISBN 978-2-226-44783-8))</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anita_Nair</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anita_Nair</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Satyr of the Subway &amp; Eleven Other Stories, 1997 Publié en français sous le titre Le Chat karmique, traduit par Marielle Morin, Arles, éditions Philippe Picquier, 2005  (ISBN 2-87730-772-7) ; réédition, Arles, éditions Philippe Picquier, coll. « Picquier poche », 2008  (ISBN 978-2-8097-0007-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anita_Nair</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anita_Nair</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Puffin Book of World Myths and Legends, 2004
 Adventures of Nonu, the Skating Squirrel, 2006
-Muezza and Baby Jaan, 2017
-Poésie
-Malabar Mind, 2002
-Autres publications
-Where the Rain is Born, 2003
+Muezza and Baby Jaan, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anita_Nair</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anita_Nair</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Malabar Mind, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anita_Nair</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anita_Nair</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Where the Rain is Born, 2003
 Living Next Door To Alise, 2007
 Goodnight &amp; Godbless, 2008</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Anita_Nair</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anita_Nair</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Honorée par la Kerala Sahitya Akademi pour sa contribution à la littérature et à la culture[2]
-Women of Substance Award pour sa contribution dans le domaine de la littérature[3]
-2012 : Arch of Excellence Award[2]
-2017 : Prix du jury du Crossword Book Award dans la catégorie littérature jeunesse pour Muezza and Baby Jaan[4]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Honorée par la Kerala Sahitya Akademi pour sa contribution à la littérature et à la culture
+Women of Substance Award pour sa contribution dans le domaine de la littérature
+2012 : Arch of Excellence Award
+2017 : Prix du jury du Crossword Book Award dans la catégorie littérature jeunesse pour Muezza and Baby Jaan</t>
         </is>
       </c>
     </row>
